--- a/Fase_II/Use Cases/Registar utilizador.xlsx
+++ b/Fase_II/Use Cases/Registar utilizador.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nuno\Desktop\Li4---Sweetron\Fase_II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nuno\Desktop\Li4---Sweetron\Fase_II\Use Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED8838EC-34E5-4B0F-9CD0-C31707323629}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF23F58-F03D-4345-81DF-18F256869FE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="84" yWindow="456" windowWidth="25440" windowHeight="14724" xr2:uid="{C7A0A64F-69DF-CB43-BB66-CA0002FD1B4D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Actor input</t>
   </si>
@@ -61,22 +61,34 @@
     <t>Utilizador está registado</t>
   </si>
   <si>
-    <t>1. Insere dados de registro</t>
-  </si>
-  <si>
-    <t>2. Processa dados</t>
-  </si>
-  <si>
-    <t>3. Regista a informação do novo utilizador na Base Dados</t>
-  </si>
-  <si>
-    <t>4. Indica o registo com sucesso</t>
-  </si>
-  <si>
-    <t>Exceção            [Dados Inválidos]  (passo 2)</t>
-  </si>
-  <si>
-    <t>2.1 Indica que os dados fornecidos estão errados</t>
+    <t>1. Indica que quer registar-se</t>
+  </si>
+  <si>
+    <t>2. Solicita dados necessários para o registo</t>
+  </si>
+  <si>
+    <t>3. Insere dados de registro</t>
+  </si>
+  <si>
+    <t>Exceção 1           [Cancela registo]  (passo 3)</t>
+  </si>
+  <si>
+    <t>3.1 Cancela registo</t>
+  </si>
+  <si>
+    <t>4. Processa dados</t>
+  </si>
+  <si>
+    <t>5. Regista a informação do novo utilizador na Base Dados</t>
+  </si>
+  <si>
+    <t>6. Indica o registo com sucesso</t>
+  </si>
+  <si>
+    <t>Exceção 2           [Dados Inválidos]  (passo 5)</t>
+  </si>
+  <si>
+    <t>5.1 Notifica que o registo é inválido</t>
   </si>
 </sst>
 </file>
@@ -280,49 +292,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -341,6 +326,52 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1247600E-1397-C742-A058-B663B513FA0A}">
-  <dimension ref="B1:D17"/>
+  <dimension ref="B1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -674,112 +705,143 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B7" s="11"/>
-      <c r="C7" s="13" t="s">
+    <row r="7" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="28"/>
+      <c r="C7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="11"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="10" t="s">
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="28"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="36" x14ac:dyDescent="0.35">
-      <c r="B9" s="11"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="10" t="s">
+    <row r="9" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B9" s="29"/>
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B10" s="11"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="B11" s="29"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="29"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="30"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="12"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="25" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="26"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="27"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="20"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="18"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="17"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="18"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="2:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="17"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="18"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B12:B14"/>
+  <mergeCells count="7">
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B6:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
